--- a/spreadsheets/UMN_fallenroll.xlsx
+++ b/spreadsheets/UMN_fallenroll.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwebster\Dropbox\Jour5155\Materials\Excel level 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22530" windowHeight="7320"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>University of Minnesota: Fall Term Student Enrollment</t>
   </si>
@@ -84,10 +79,16 @@
     <t>Student of Color</t>
   </si>
   <si>
-    <t>Created by the University of Minnesota - Office of Institutional Research</t>
-  </si>
-  <si>
     <t>http://www.oir.umn.edu</t>
+  </si>
+  <si>
+    <t>Fall 2015</t>
+  </si>
+  <si>
+    <t>Fall 2016</t>
+  </si>
+  <si>
+    <t>Source: University of Minnesota - Office of Institutional Research</t>
   </si>
 </sst>
 </file>
@@ -886,7 +887,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -894,347 +895,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>10610</v>
-      </c>
-      <c r="D8">
-        <v>11035</v>
-      </c>
-      <c r="E8">
-        <v>11050</v>
-      </c>
-      <c r="F8">
-        <v>10994</v>
-      </c>
-      <c r="G8">
-        <v>10895</v>
-      </c>
-      <c r="H8">
-        <v>10727</v>
-      </c>
-      <c r="I8">
-        <v>10555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>11855</v>
-      </c>
-      <c r="D9">
-        <v>11995</v>
-      </c>
-      <c r="E9">
-        <v>11965</v>
-      </c>
-      <c r="F9">
-        <v>11670</v>
-      </c>
-      <c r="G9">
-        <v>11372</v>
-      </c>
-      <c r="H9">
-        <v>11149</v>
-      </c>
-      <c r="I9">
-        <v>10863</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>10610</v>
+      </c>
+      <c r="D10">
+        <v>11035</v>
+      </c>
+      <c r="E10">
+        <v>11050</v>
+      </c>
+      <c r="F10">
+        <v>10994</v>
+      </c>
+      <c r="G10">
+        <v>10895</v>
+      </c>
+      <c r="H10">
+        <v>10727</v>
+      </c>
+      <c r="I10">
+        <v>10555</v>
+      </c>
+      <c r="J10">
+        <v>10471</v>
+      </c>
+      <c r="K10">
+        <v>10425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>11855</v>
+      </c>
+      <c r="D11">
+        <v>11995</v>
+      </c>
+      <c r="E11">
+        <v>11965</v>
+      </c>
+      <c r="F11">
+        <v>11670</v>
+      </c>
+      <c r="G11">
+        <v>11372</v>
+      </c>
+      <c r="H11">
+        <v>11149</v>
+      </c>
+      <c r="I11">
+        <v>10863</v>
+      </c>
+      <c r="J11">
+        <v>10980</v>
+      </c>
+      <c r="K11">
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>36</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>23</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>13</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>501</v>
-      </c>
-      <c r="D11">
-        <v>806</v>
-      </c>
-      <c r="E11">
-        <v>1031</v>
-      </c>
-      <c r="F11">
-        <v>1264</v>
-      </c>
-      <c r="G11">
-        <v>1369</v>
-      </c>
-      <c r="H11">
-        <v>1416</v>
-      </c>
-      <c r="I11">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="J12">
         <v>17</v>
       </c>
-      <c r="C12">
-        <v>389</v>
-      </c>
-      <c r="D12">
-        <v>641</v>
-      </c>
-      <c r="E12">
-        <v>836</v>
-      </c>
-      <c r="F12">
-        <v>1092</v>
-      </c>
-      <c r="G12">
-        <v>1150</v>
-      </c>
-      <c r="H12">
-        <v>1225</v>
-      </c>
-      <c r="I12">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>501</v>
+      </c>
+      <c r="D13">
+        <v>806</v>
+      </c>
+      <c r="E13">
+        <v>1031</v>
+      </c>
+      <c r="F13">
+        <v>1264</v>
+      </c>
+      <c r="G13">
+        <v>1369</v>
+      </c>
+      <c r="H13">
+        <v>1416</v>
+      </c>
+      <c r="I13">
+        <v>1493</v>
+      </c>
+      <c r="J13">
+        <v>1524</v>
+      </c>
+      <c r="K13">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>389</v>
+      </c>
+      <c r="D14">
+        <v>641</v>
+      </c>
+      <c r="E14">
+        <v>836</v>
+      </c>
+      <c r="F14">
+        <v>1092</v>
+      </c>
+      <c r="G14">
+        <v>1150</v>
+      </c>
+      <c r="H14">
+        <v>1225</v>
+      </c>
+      <c r="I14">
+        <v>1294</v>
+      </c>
+      <c r="J14">
+        <v>1309</v>
+      </c>
+      <c r="K14">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2324</v>
-      </c>
-      <c r="D14">
-        <v>2498</v>
-      </c>
-      <c r="E14">
-        <v>2590</v>
-      </c>
-      <c r="F14">
-        <v>2611</v>
-      </c>
-      <c r="G14">
-        <v>2652</v>
-      </c>
-      <c r="H14">
-        <v>2704</v>
-      </c>
-      <c r="I14">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2789</v>
-      </c>
-      <c r="D15">
-        <v>2922</v>
-      </c>
-      <c r="E15">
-        <v>3022</v>
-      </c>
-      <c r="F15">
-        <v>2968</v>
-      </c>
-      <c r="G15">
-        <v>2924</v>
-      </c>
-      <c r="H15">
-        <v>3034</v>
-      </c>
-      <c r="I15">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2324</v>
+      </c>
+      <c r="D16">
+        <v>2498</v>
+      </c>
+      <c r="E16">
+        <v>2590</v>
+      </c>
+      <c r="F16">
+        <v>2611</v>
+      </c>
+      <c r="G16">
+        <v>2652</v>
+      </c>
+      <c r="H16">
+        <v>2704</v>
+      </c>
+      <c r="I16">
+        <v>2731</v>
+      </c>
+      <c r="J16">
+        <v>2860</v>
+      </c>
+      <c r="K16">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2789</v>
+      </c>
+      <c r="D17">
+        <v>2922</v>
+      </c>
+      <c r="E17">
+        <v>3022</v>
+      </c>
+      <c r="F17">
+        <v>2968</v>
+      </c>
+      <c r="G17">
+        <v>2924</v>
+      </c>
+      <c r="H17">
+        <v>3034</v>
+      </c>
+      <c r="I17">
+        <v>3187</v>
+      </c>
+      <c r="J17">
+        <v>3348</v>
+      </c>
+      <c r="K17">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
